--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.8768706532937</v>
+        <v>170.0651211534674</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.0715083077911</v>
+        <v>232.6906015056968</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.981174883386</v>
+        <v>210.4829370813706</v>
       </c>
       <c r="AD2" t="n">
-        <v>130876.8706532937</v>
+        <v>170065.1211534674</v>
       </c>
       <c r="AE2" t="n">
-        <v>179071.5083077911</v>
+        <v>232690.6015056968</v>
       </c>
       <c r="AF2" t="n">
         <v>1.831214261306367e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.570833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>161981.174883386</v>
+        <v>210482.9370813706</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.5885381764514</v>
+        <v>168.6753034501398</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.3087549757587</v>
+        <v>230.7889916095752</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.3866562553224</v>
+        <v>208.762814164808</v>
       </c>
       <c r="AD3" t="n">
-        <v>129588.5381764513</v>
+        <v>168675.3034501398</v>
       </c>
       <c r="AE3" t="n">
-        <v>177308.7549757587</v>
+        <v>230788.9916095752</v>
       </c>
       <c r="AF3" t="n">
         <v>1.860670992954485e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.433333333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>160386.6562553224</v>
+        <v>208762.814164808</v>
       </c>
     </row>
   </sheetData>
@@ -1955,19 +1955,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.8324541125031</v>
+        <v>179.2010344442621</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.0107356371618</v>
+        <v>245.1907611182046</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.9262022711466</v>
+        <v>221.7900990045489</v>
       </c>
       <c r="AD2" t="n">
-        <v>130832.4541125031</v>
+        <v>179201.0344442622</v>
       </c>
       <c r="AE2" t="n">
-        <v>179010.7356371618</v>
+        <v>245190.7611182046</v>
       </c>
       <c r="AF2" t="n">
         <v>1.908476048305439e-05</v>
@@ -1976,7 +1976,7 @@
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>161926.2022711466</v>
+        <v>221790.0990045489</v>
       </c>
     </row>
   </sheetData>
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.0967482138236</v>
+        <v>257.5509549731275</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.8352456164489</v>
+        <v>352.3925789402867</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.7506186664759</v>
+        <v>318.7607257924219</v>
       </c>
       <c r="AD2" t="n">
-        <v>192096.7482138236</v>
+        <v>257550.9549731275</v>
       </c>
       <c r="AE2" t="n">
-        <v>262835.2456164489</v>
+        <v>352392.5789402868</v>
       </c>
       <c r="AF2" t="n">
         <v>1.844664607941734e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>237750.6186664759</v>
+        <v>318760.7257924219</v>
       </c>
     </row>
   </sheetData>
@@ -2549,28 +2549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.299091954843</v>
+        <v>216.1603473069348</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.9600453924594</v>
+        <v>295.7601235066945</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.1582445691106</v>
+        <v>267.5331924212433</v>
       </c>
       <c r="AD2" t="n">
-        <v>159299.0919548431</v>
+        <v>216160.3473069348</v>
       </c>
       <c r="AE2" t="n">
-        <v>217960.0453924594</v>
+        <v>295760.1235066945</v>
       </c>
       <c r="AF2" t="n">
         <v>1.915329690596624e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>197158.2445691106</v>
+        <v>267533.1924212432</v>
       </c>
     </row>
   </sheetData>
@@ -2846,28 +2846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.1828334501629</v>
+        <v>325.3756913331989</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.3652370789061</v>
+        <v>445.1933754444912</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.740203926225</v>
+        <v>402.704744524895</v>
       </c>
       <c r="AD2" t="n">
-        <v>242182.833450163</v>
+        <v>325375.6913331989</v>
       </c>
       <c r="AE2" t="n">
-        <v>331365.2370789061</v>
+        <v>445193.3754444912</v>
       </c>
       <c r="AF2" t="n">
         <v>1.72260208711543e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>299740.203926225</v>
+        <v>402704.744524895</v>
       </c>
     </row>
   </sheetData>
@@ -3143,28 +3143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.6970334019178</v>
+        <v>179.2075114772702</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.8254470465991</v>
+        <v>245.1996232805127</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.758597363613</v>
+        <v>221.7981153745244</v>
       </c>
       <c r="AD2" t="n">
-        <v>130697.0334019178</v>
+        <v>179207.5114772702</v>
       </c>
       <c r="AE2" t="n">
-        <v>178825.4470465991</v>
+        <v>245199.6232805127</v>
       </c>
       <c r="AF2" t="n">
         <v>1.890526504425818e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.866666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>161758.597363613</v>
+        <v>221798.1153745244</v>
       </c>
     </row>
     <row r="3">
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.4599897961684</v>
+        <v>178.9704678715208</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.501113527587</v>
+        <v>244.8752897615007</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.4652177804504</v>
+        <v>221.5047357913618</v>
       </c>
       <c r="AD3" t="n">
-        <v>130459.9897961684</v>
+        <v>178970.4678715208</v>
       </c>
       <c r="AE3" t="n">
-        <v>178501.113527587</v>
+        <v>244875.2897615007</v>
       </c>
       <c r="AF3" t="n">
         <v>1.899576127085502e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.820833333333335</v>
       </c>
       <c r="AH3" t="n">
-        <v>161465.2177804504</v>
+        <v>221504.7357913618</v>
       </c>
     </row>
   </sheetData>
@@ -3546,28 +3546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.4423666507084</v>
+        <v>383.3033848632126</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.7643035812779</v>
+        <v>524.45260132173</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.7067981166952</v>
+        <v>474.3995811254322</v>
       </c>
       <c r="AD2" t="n">
-        <v>291442.3666507084</v>
+        <v>383303.3848632126</v>
       </c>
       <c r="AE2" t="n">
-        <v>398764.303581278</v>
+        <v>524452.6013217299</v>
       </c>
       <c r="AF2" t="n">
         <v>1.620101951140957e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>360706.7981166951</v>
+        <v>474399.5811254322</v>
       </c>
     </row>
   </sheetData>
@@ -3843,28 +3843,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.273847237377</v>
+        <v>191.2160661553416</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.0335985861327</v>
+        <v>261.6302575710841</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.3244270720114</v>
+        <v>236.6606329889489</v>
       </c>
       <c r="AD2" t="n">
-        <v>143273.847237377</v>
+        <v>191216.0661553416</v>
       </c>
       <c r="AE2" t="n">
-        <v>196033.5985861327</v>
+        <v>261630.2575710841</v>
       </c>
       <c r="AF2" t="n">
         <v>1.931746218721671e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>177324.4270720114</v>
+        <v>236660.632988949</v>
       </c>
     </row>
   </sheetData>
@@ -4140,28 +4140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.828881509132</v>
+        <v>189.9828484497959</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.0565327293601</v>
+        <v>259.9429147006319</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.5360496057791</v>
+        <v>235.1343277538516</v>
       </c>
       <c r="AD2" t="n">
-        <v>141828.881509132</v>
+        <v>189982.8484497959</v>
       </c>
       <c r="AE2" t="n">
-        <v>194056.5327293601</v>
+        <v>259942.9147006319</v>
       </c>
       <c r="AF2" t="n">
         <v>1.907455128103824e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.241666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>175536.0496057791</v>
+        <v>235134.3277538516</v>
       </c>
     </row>
     <row r="3">
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.6671384471501</v>
+        <v>180.2383457919457</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.8352287363562</v>
+        <v>246.6100562670514</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.3358665552654</v>
+        <v>223.0739386163834</v>
       </c>
       <c r="AD3" t="n">
-        <v>141667.1384471501</v>
+        <v>180238.3457919457</v>
       </c>
       <c r="AE3" t="n">
-        <v>193835.2287363563</v>
+        <v>246610.0562670514</v>
       </c>
       <c r="AF3" t="n">
         <v>1.91523893257424e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.204166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>175335.8665552654</v>
+        <v>223073.9386163834</v>
       </c>
     </row>
   </sheetData>
@@ -4543,28 +4543,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.4053143124817</v>
+        <v>179.1853237775562</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.4263041186949</v>
+        <v>245.1692650909118</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.3975480765472</v>
+        <v>221.7706545279311</v>
       </c>
       <c r="AD2" t="n">
-        <v>130405.3143124817</v>
+        <v>179185.3237775562</v>
       </c>
       <c r="AE2" t="n">
-        <v>178426.3041186949</v>
+        <v>245169.2650909118</v>
       </c>
       <c r="AF2" t="n">
         <v>1.858113932475386e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>161397.5480765472</v>
+        <v>221770.6545279311</v>
       </c>
     </row>
     <row r="3">
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.6318418215608</v>
+        <v>168.7173471474259</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.3680049334195</v>
+        <v>230.8465176510391</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.4402514801819</v>
+        <v>208.8148500016129</v>
       </c>
       <c r="AD3" t="n">
-        <v>129631.8418215608</v>
+        <v>168717.3471474259</v>
       </c>
       <c r="AE3" t="n">
-        <v>177368.0049334195</v>
+        <v>230846.5176510391</v>
       </c>
       <c r="AF3" t="n">
         <v>1.877495724394911e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.533333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>160440.2514801819</v>
+        <v>208814.8500016129</v>
       </c>
     </row>
   </sheetData>
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.6656112042489</v>
+        <v>204.1970013425741</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.3568008485272</v>
+        <v>279.3913457726896</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.8988886272646</v>
+        <v>252.7266278604428</v>
       </c>
       <c r="AD2" t="n">
-        <v>156665.6112042489</v>
+        <v>204197.0013425741</v>
       </c>
       <c r="AE2" t="n">
-        <v>214356.8008485272</v>
+        <v>279391.3457726897</v>
       </c>
       <c r="AF2" t="n">
         <v>1.924879542768208e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.37916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>193898.8886272646</v>
+        <v>252726.6278604428</v>
       </c>
     </row>
   </sheetData>
@@ -5243,28 +5243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.1820915499585</v>
+        <v>242.5203719541342</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.7425514327167</v>
+        <v>331.827072151187</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.4302798574689</v>
+        <v>300.1579621073973</v>
       </c>
       <c r="AD2" t="n">
-        <v>186182.0915499585</v>
+        <v>242520.3719541342</v>
       </c>
       <c r="AE2" t="n">
-        <v>254742.5514327167</v>
+        <v>331827.072151187</v>
       </c>
       <c r="AF2" t="n">
         <v>1.876638575498437e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>230430.2798574689</v>
+        <v>300157.9621073973</v>
       </c>
     </row>
   </sheetData>
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.6857752898146</v>
+        <v>284.760227405679</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.5837696037739</v>
+        <v>389.6215058710508</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.8964765048487</v>
+        <v>352.436576187935</v>
       </c>
       <c r="AD2" t="n">
-        <v>219685.7752898146</v>
+        <v>284760.227405679</v>
       </c>
       <c r="AE2" t="n">
-        <v>300583.7696037739</v>
+        <v>389621.5058710508</v>
       </c>
       <c r="AF2" t="n">
         <v>1.794345967107817e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.21666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>271896.4765048487</v>
+        <v>352436.576187935</v>
       </c>
     </row>
   </sheetData>
@@ -8658,28 +8658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.485338139559</v>
+        <v>476.7470537247139</v>
       </c>
       <c r="AB2" t="n">
-        <v>515.1238490034344</v>
+        <v>652.3063515017584</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.9611518354088</v>
+        <v>590.0511488321443</v>
       </c>
       <c r="AD2" t="n">
-        <v>376485.338139559</v>
+        <v>476747.0537247139</v>
       </c>
       <c r="AE2" t="n">
-        <v>515123.8490034344</v>
+        <v>652306.3515017584</v>
       </c>
       <c r="AF2" t="n">
         <v>1.46382998744118e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.04583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>465961.1518354088</v>
+        <v>590051.1488321443</v>
       </c>
     </row>
   </sheetData>
@@ -8955,28 +8955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.5152920844124</v>
+        <v>190.5159828190125</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.9957099607557</v>
+        <v>260.6723726648222</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.3855930803542</v>
+        <v>235.7941672737405</v>
       </c>
       <c r="AD2" t="n">
-        <v>142515.2920844124</v>
+        <v>190515.9828190125</v>
       </c>
       <c r="AE2" t="n">
-        <v>194995.7099607557</v>
+        <v>260672.3726648222</v>
       </c>
       <c r="AF2" t="n">
         <v>1.919135538782356e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.441666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>176385.5930803542</v>
+        <v>235794.1672737405</v>
       </c>
     </row>
     <row r="3">
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.3519630693999</v>
+        <v>190.352653804</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.7722359968481</v>
+        <v>260.4488987009146</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.1834471579141</v>
+        <v>235.5920213513005</v>
       </c>
       <c r="AD3" t="n">
-        <v>142351.9630693999</v>
+        <v>190352.653804</v>
       </c>
       <c r="AE3" t="n">
-        <v>194772.2359968481</v>
+        <v>260448.8987009146</v>
       </c>
       <c r="AF3" t="n">
         <v>1.926791028341199e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.404166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>176183.4471579141</v>
+        <v>235592.0213513005</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.6922337573644</v>
+        <v>179.3397123033825</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.8188799611757</v>
+        <v>245.3805062830884</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.7526570316055</v>
+        <v>221.9617351572052</v>
       </c>
       <c r="AD2" t="n">
-        <v>130692.2337573644</v>
+        <v>179339.7123033825</v>
       </c>
       <c r="AE2" t="n">
-        <v>178818.8799611757</v>
+        <v>245380.5062830884</v>
       </c>
       <c r="AF2" t="n">
         <v>1.870626659523955e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.754166666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>161752.6570316055</v>
+        <v>221961.7351572052</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.9804199137645</v>
+        <v>178.6278984597826</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.8449448573523</v>
+        <v>244.406571179265</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.8716729271642</v>
+        <v>221.0807510527639</v>
       </c>
       <c r="AD3" t="n">
-        <v>129980.4199137645</v>
+        <v>178627.8984597826</v>
       </c>
       <c r="AE3" t="n">
-        <v>177844.9448573524</v>
+        <v>244406.571179265</v>
       </c>
       <c r="AF3" t="n">
         <v>1.889020853679883e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.670833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>160871.6729271642</v>
+        <v>221080.7510527639</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>544.229900549155</v>
+        <v>697.7001142119059</v>
       </c>
       <c r="AB2" t="n">
-        <v>744.6393596600454</v>
+        <v>954.6240766214007</v>
       </c>
       <c r="AC2" t="n">
-        <v>673.5720242819953</v>
+        <v>863.5160945719599</v>
       </c>
       <c r="AD2" t="n">
-        <v>544229.900549155</v>
+        <v>697700.1142119059</v>
       </c>
       <c r="AE2" t="n">
-        <v>744639.3596600455</v>
+        <v>954624.0766214008</v>
       </c>
       <c r="AF2" t="n">
         <v>1.21969239157626e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.575</v>
       </c>
       <c r="AH2" t="n">
-        <v>673572.0242819953</v>
+        <v>863516.0945719599</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.3305102266247</v>
+        <v>228.8876721632259</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.7902067775014</v>
+        <v>313.1742108650078</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.2867203763585</v>
+        <v>283.2853037229098</v>
       </c>
       <c r="AD2" t="n">
-        <v>172330.5102266247</v>
+        <v>228887.6721632259</v>
       </c>
       <c r="AE2" t="n">
-        <v>235790.2067775014</v>
+        <v>313174.2108650078</v>
       </c>
       <c r="AF2" t="n">
         <v>1.898104832493517e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.4125</v>
       </c>
       <c r="AH2" t="n">
-        <v>213286.7203763585</v>
+        <v>283285.3037229098</v>
       </c>
     </row>
   </sheetData>
@@ -10355,19 +10355,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.0200788223737</v>
+        <v>202.2814356795445</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.4228696790246</v>
+        <v>276.7703843237411</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.4856694851614</v>
+        <v>250.3558072936385</v>
       </c>
       <c r="AD2" t="n">
-        <v>145020.0788223737</v>
+        <v>202281.4356795445</v>
       </c>
       <c r="AE2" t="n">
-        <v>198422.8696790246</v>
+        <v>276770.3843237411</v>
       </c>
       <c r="AF2" t="n">
         <v>1.928433239536545e-05</v>
@@ -10376,7 +10376,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>179485.6694851614</v>
+        <v>250355.8072936385</v>
       </c>
     </row>
   </sheetData>
